--- a/Example Dream Data Pull.xlsx
+++ b/Example Dream Data Pull.xlsx
@@ -318,7 +318,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="216">
   <si>
-    <t xml:space="preserve">Observation Type</t>
+    <t xml:space="preserve">ObservationType</t>
   </si>
   <si>
     <t xml:space="preserve">OBSERVER</t>
@@ -333,13 +333,13 @@
     <t xml:space="preserve">SEASON</t>
   </si>
   <si>
-    <t xml:space="preserve">Weather condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Quality Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temp Phone F°</t>
+    <t xml:space="preserve">Weathercondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AirQualityCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TempPhoneF°</t>
   </si>
   <si>
     <t xml:space="preserve">Humidity</t>
@@ -357,25 +357,25 @@
     <t xml:space="preserve">FOCALStudbook</t>
   </si>
   <si>
-    <t xml:space="preserve">FOCAL Provenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCAL DOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCAL Mother Reared (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCAL Date at First Breeding Recruitment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCAL Natural Reproductive Success (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCAL Date at First Natural Reproductive Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOCAL Date at First Parity </t>
+    <t xml:space="preserve">FOCALProvenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOCALDOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOCALMotherReared(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOCALDateatFirstBreedingRecruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOCALNaturalReproductiveSuccess(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOCALDateatFirstNaturalReproductiveBirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOCALDateatFirstParity</t>
   </si>
   <si>
     <t xml:space="preserve">FEMALE</t>
@@ -384,25 +384,25 @@
     <t xml:space="preserve">FEMALEStudbook</t>
   </si>
   <si>
-    <t xml:space="preserve">FEMALE Provenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEMALE DOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FEMALE Mother Reared (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEMALE Date at First Breeding Recruitment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEMALE Natural Reproductive Success (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEMALE Date at First Natural Reproductive Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEMALE Date at First Parity </t>
+    <t xml:space="preserve">FEMALEProvenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEMALEDOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEMALEMotherReared(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEMALEDateatFirstBreedingRecruitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEMALENaturalReproductiveSuccess(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEMALEDateatFirstNaturalReproductiveBirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEMALEDateatFirstParity</t>
   </si>
   <si>
     <t xml:space="preserve">Neighbor1</t>
@@ -411,136 +411,136 @@
     <t xml:space="preserve">Neighbor2</t>
   </si>
   <si>
-    <t xml:space="preserve">Closest Male Weight to Observation Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closest Female Weight to Observation Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closest Testosterone Reading Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closest Progesterone Reading Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak Estrous Date for Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mated (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Mating Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Mating Intromission Time for Mating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Mating Number of people present at Mating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Mating occurred Inside/outside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Mating Home pen of Female or Male (M/F)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pen Location of Pen Mating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Number of Matings for Pair for Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Number of Matings for Pair Successful for the Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female Also Artificial Insemination (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intromission Success (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub Birth for that Year  (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub DOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestation Length (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmed Paternity of Mated Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Cubs in Litter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex Ratio of Litter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maternal Rearing (Hand/Parent)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub_1_Studbook Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub_2_Studbook Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub_3_Studbook Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub_1_ Weight_1week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub_1_ Weight_2week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub_2_ Weight_1week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub_2_ Weight_2week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub_3_ Weight_1week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub_3_ Weight_2week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Death Cub 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Death Cub 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Death Cub 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Days Survived Cub 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Days Survived Cub 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Days Survived Cub 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pair Previously Mated Ever Attempt (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pair Previously Mated Ever Success (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pair Previously Mated Last Year Attempt (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pair Previously Mated Last Year Success (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pair Previously Produced Cubs  Ever  (Y/N)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pair Previously Produced Cub  Last Year  (Y/N)</t>
+    <t xml:space="preserve">ClosestMaleWeighttoObservationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClosestFemaleWeighttoObservationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClosestTestosteroneReadingMale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClosestProgesteroneReadingFemale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeakEstrousDateforFemale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mated(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstMatingDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstMatingIntromissionTimeforMating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstMatingNumberofpeoplepresentatMating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstMatingoccurredInside/outside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstMatingHomepenofFemaleorMale(M/F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PenLocationofPenMating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalNumberofMatingsforPairforYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalNumberofMatingsforPairSuccessfulfortheYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FemaleAlsoArtificialInsemination(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intromissionSuccess(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CubBirthforthatYear(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CubDOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GestationLength(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfirmedPaternityofMatedMale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumberofCubsinLitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SexRatioofLitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaternalRearing(Hand/Parent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub_1_StudbookNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub_2_StudbookNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub_3_StudbookNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub_1_Weight_1week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub_1_Weight_2week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub_2_Weight_1week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub_2_Weight_2week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub_3_Weight_1week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cub_3_Weight_2week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateofDeathCub1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateofDeathCub2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateofDeathCub3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumberofDaysSurvivedCub1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumberofDaysSurvivedCub2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumberofDaysSurvivedCub3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PairPreviouslyMatedEverAttempt(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PairPreviouslyMatedEverSuccess(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PairPreviouslyMatedLastYearAttempt(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PairPreviouslyMatedLastYearSuccess(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PairPreviouslyProducedCubsEver(Y/N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PairPreviouslyProducedCubLastYear(Y/N)</t>
   </si>
   <si>
     <t xml:space="preserve">Time</t>
@@ -717,7 +717,7 @@
     <t xml:space="preserve">AO_GenitalStim_Total</t>
   </si>
   <si>
-    <t xml:space="preserve">AO_GenitalInspect_ Total</t>
+    <t xml:space="preserve">AO_GenitalInspect_Total</t>
   </si>
   <si>
     <t xml:space="preserve">AO_WaterPlay</t>
@@ -1121,7 +1121,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1230,10 +1230,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1313,24 +1309,24 @@
   </sheetPr>
   <dimension ref="A1:GT4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="GD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="GQ9" activeCellId="0" sqref="GQ9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BT1" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BR1" activeCellId="0" sqref="BR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="23" style="0" width="8.83"/>
@@ -1343,7 +1339,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="36" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="41" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="42" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="11.94"/>
@@ -1351,11 +1348,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="51" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="58" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="71" style="0" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="14.31"/>
@@ -1363,20 +1360,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="4" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="9.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="0" width="13.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="0" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="0" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="0" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="92" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="96" style="0" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="0" width="9.86"/>
@@ -1384,28 +1381,28 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="7.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="0" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="0" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="106" min="106" style="0" width="8.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="107" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="107" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="109" min="108" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="110" min="110" style="0" width="7.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="111" min="111" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="112" min="112" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="113" min="113" style="0" width="12.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="114" min="114" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="116" min="115" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="116" min="115" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="124" min="117" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="125" min="125" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="125" min="125" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="126" min="126" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="127" min="127" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="127" min="127" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="128" min="128" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="129" min="129" style="0" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="130" min="130" style="0" width="11.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="131" min="131" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="132" min="132" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="132" min="132" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="133" min="133" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="134" min="134" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="135" min="135" style="0" width="10.41"/>
@@ -1414,24 +1411,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="139" min="139" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="140" min="140" style="0" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="141" min="141" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="142" min="142" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="142" min="142" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="143" min="143" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="144" min="144" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="145" min="145" style="5" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="145" min="145" style="5" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="146" min="146" style="0" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="147" min="147" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="148" min="148" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="148" min="148" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="149" min="149" style="0" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="150" min="150" style="0" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="151" min="151" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="152" min="152" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="152" min="152" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="153" min="153" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="154" min="154" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="154" min="154" style="0" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="155" min="155" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="156" min="156" style="0" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="157" min="157" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="158" min="158" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="159" min="159" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="159" min="159" style="0" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="160" min="160" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="161" min="161" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="162" min="162" style="0" width="8.06"/>
@@ -1441,12 +1438,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="166" min="166" style="0" width="9.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="167" min="167" style="0" width="11.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="168" min="168" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="169" min="169" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="169" min="169" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="170" min="170" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="171" min="171" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="172" min="172" style="0" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="173" min="173" style="0" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="174" min="174" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="173" min="173" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="174" min="174" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="176" min="175" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="177" min="177" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="178" min="178" style="0" width="8.83"/>
@@ -1461,10 +1458,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="193" min="193" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="194" min="194" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="195" min="195" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="196" min="196" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="196" min="196" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="197" min="197" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="198" min="198" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="199" min="199" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="199" min="199" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="200" min="200" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="201" min="201" style="0" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="202" min="202" style="0" width="9.59"/>
@@ -2083,7 +2080,7 @@
       <c r="A2" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="27" t="n">
+      <c r="B2" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="n">
